--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3588.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3588.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.347894237624251</v>
+        <v>1.292504191398621</v>
       </c>
       <c r="B1">
-        <v>3.362414739185598</v>
+        <v>4.988254070281982</v>
       </c>
       <c r="C1">
-        <v>5.046344073954888</v>
+        <v>3.196216344833374</v>
       </c>
       <c r="D1">
-        <v>1.560518879655151</v>
+        <v>1.72171413898468</v>
       </c>
       <c r="E1">
-        <v>0.9639168811738899</v>
+        <v>1.30008602142334</v>
       </c>
     </row>
   </sheetData>
